--- a/Excel Files/Scenario 17/Scenario 17_TC009/expectedContractParts.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_TC009/expectedContractParts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-syazwan-ttap-brivge\Excel Files\Scenario 17\Scenario 17_TC009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9D8B8-C1C2-4FCE-A6AA-3A0189264AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CD1C2-9544-420D-A20A-9391E9CAAE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="UOM">UOM!$A$1:$A$42</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -12019,7 +12019,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12534,7 +12534,8 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30">
-        <v>45222</v>
+        <f ca="1">TODAY()</f>
+        <v>45227</v>
       </c>
       <c r="AH8" s="23">
         <v>4</v>
@@ -12626,7 +12627,8 @@
         <v>1</v>
       </c>
       <c r="AG9" s="30">
-        <v>45222</v>
+        <f ca="1">TODAY()</f>
+        <v>45227</v>
       </c>
       <c r="AH9" s="23">
         <v>4</v>
@@ -12718,7 +12720,8 @@
         <v>2</v>
       </c>
       <c r="AG10" s="30">
-        <v>45222</v>
+        <f ca="1">TODAY()</f>
+        <v>45227</v>
       </c>
       <c r="AH10" s="23">
         <v>6</v>
@@ -12810,7 +12813,8 @@
         <v>2</v>
       </c>
       <c r="AG11" s="30">
-        <v>45222</v>
+        <f ca="1">TODAY()</f>
+        <v>45227</v>
       </c>
       <c r="AH11" s="23">
         <v>6</v>
@@ -12902,7 +12906,8 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30">
-        <v>45222</v>
+        <f ca="1">TODAY()</f>
+        <v>45227</v>
       </c>
       <c r="AH12" s="23">
         <v>1</v>
